--- a/publication/web-root/cibmtr-reporting/ValueSet-snomed-myelodysplastic-diseases-vs.xlsx
+++ b/publication/web-root/cibmtr-reporting/ValueSet-snomed-myelodysplastic-diseases-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T11:11:22-05:00</t>
+    <t>2023-05-04T21:49:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/publication/web-root/cibmtr-reporting/ValueSet-snomed-myelodysplastic-diseases-vs.xlsx
+++ b/publication/web-root/cibmtr-reporting/ValueSet-snomed-myelodysplastic-diseases-vs.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-04T21:49:21-05:00</t>
+    <t>2023-05-05T10:50:04-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/publication/web-root/cibmtr-reporting/ValueSet-snomed-myelodysplastic-diseases-vs.xlsx
+++ b/publication/web-root/cibmtr-reporting/ValueSet-snomed-myelodysplastic-diseases-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.1.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T10:50:04-05:00</t>
+    <t>2024-08-27T12:23:18-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,16 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>The Medical College of Wisconsin, Inc. and the National Marrow Donor Program (http://www.cibmtr.org)</t>
+  </si>
+  <si>
+    <t>Bob Milius (bmilius@nmdp.org)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -103,9 +112,6 @@
   </si>
   <si>
     <t>109995007</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -233,10 +239,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -245,7 +251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -340,35 +346,43 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -393,7 +407,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -401,29 +415,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/publication/web-root/cibmtr-reporting/ValueSet-snomed-myelodysplastic-diseases-vs.xlsx
+++ b/publication/web-root/cibmtr-reporting/ValueSet-snomed-myelodysplastic-diseases-vs.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.1.7</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T10:50:04-05:00</t>
+    <t>2024-11-22T12:33:30-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,16 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>The Medical College of Wisconsin, Inc. and the National Marrow Donor Program (http://www.cibmtr.org)</t>
+  </si>
+  <si>
+    <t>Bob Milius (bmilius@nmdp.org)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -103,9 +112,6 @@
   </si>
   <si>
     <t>109995007</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -233,10 +239,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -245,7 +251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -340,35 +346,43 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -393,7 +407,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -401,29 +415,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/publication/web-root/cibmtr-reporting/ValueSet-snomed-myelodysplastic-diseases-vs.xlsx
+++ b/publication/web-root/cibmtr-reporting/ValueSet-snomed-myelodysplastic-diseases-vs.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.6</t>
+    <t>0.1.8</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-05-05T10:50:04-05:00</t>
+    <t>2025-02-18T16:25:42-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,7 +72,16 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>The Medical College of Wisconsin, Inc. and the National Marrow Donor Program (http://www.cibmtr.org)</t>
+  </si>
+  <si>
+    <t>Bob Milius (bmilius@nmdp.org)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Description</t>
@@ -103,9 +112,6 @@
   </si>
   <si>
     <t>109995007</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>System URI</t>
@@ -233,10 +239,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -245,7 +251,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -340,35 +346,43 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>27</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -393,7 +407,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -401,29 +415,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/publication/web-root/cibmtr-reporting/ValueSet-snomed-myelodysplastic-diseases-vs.xlsx
+++ b/publication/web-root/cibmtr-reporting/ValueSet-snomed-myelodysplastic-diseases-vs.xlsx
@@ -7,13 +7,13 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include from SNOMED CT" r:id="rId4" sheetId="2"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.8</t>
+    <t>0.1.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +48,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-02-18T16:25:42-06:00</t>
+    <t>2023-05-05T10:50:04-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -72,46 +72,40 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>The Medical College of Wisconsin, Inc. and the National Marrow Donor Program (http://www.cibmtr.org)</t>
-  </si>
-  <si>
-    <t>Bob Milius (bmilius@nmdp.org)</t>
-  </si>
-  <si>
-    <t>Jurisdiction</t>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>The myelodysplastic syndromes (MDS) are a group of clonal hematopoietic stem cell diseases characterized by cytopenia(s), dysplasia (abnormal growth or development leading to an alteration in size, shape, and organization of the cell) in one or more of the major myeloid cell lines (WBC, RBC, and/or platelets), ineffective hematopoiesis, and an increased risk of developing acute myelogenous leukemia (AML). MDS occurs primarily in older adults, with a median age of 70 years. The majority of recipients present with symptoms related to cytopenias. Most recipients present with anemia requiring RBC transfusions.</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>BooleanType[null]</t>
+  </si>
+  <si>
+    <t>Operation</t>
+  </si>
+  <si>
+    <t>concept</t>
+  </si>
+  <si>
+    <t>is-a</t>
+  </si>
+  <si>
+    <t>109995007</t>
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>The myelodysplastic syndromes (MDS) are a group of clonal hematopoietic stem cell diseases characterized by cytopenia(s), dysplasia (abnormal growth or development leading to an alteration in size, shape, and organization of the cell) in one or more of the major myeloid cell lines (WBC, RBC, and/or platelets), ineffective hematopoiesis, and an increased risk of developing acute myelogenous leukemia (AML). MDS occurs primarily in older adults, with a median age of 70 years. The majority of recipients present with symptoms related to cytopenias. Most recipients present with anemia requiring RBC transfusions.</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Immutable</t>
-  </si>
-  <si>
-    <t>BooleanType[null]</t>
-  </si>
-  <si>
-    <t>Operation</t>
-  </si>
-  <si>
-    <t>concept</t>
-  </si>
-  <si>
-    <t>is-a</t>
-  </si>
-  <si>
-    <t>109995007</t>
   </si>
   <si>
     <t>System URI</t>
@@ -239,10 +233,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -251,7 +245,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -346,43 +340,35 @@
         <v>18</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s" s="2">
         <v>21</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s" s="2">
-        <v>24</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>26</v>
-      </c>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -407,7 +393,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
@@ -415,29 +401,29 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>22</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
